--- a/VB12pre.xlsx
+++ b/VB12pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D76098-B919-2E46-8C01-F9051BE16FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71595CBE-7C4D-3E41-8378-6A077CEF84C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15620" xr2:uid="{CFD31803-BB40-F845-8FBB-5C7D4AE921C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>n=1</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>補糖ありOD360</t>
+  </si>
+  <si>
+    <t>n=2</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +468,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1"/>
     </row>
